--- a/Python/Sonstige_Uebungen/create_excel_links/example.xlsx
+++ b/Python/Sonstige_Uebungen/create_excel_links/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbald\Desktop\excelllink\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schuldokumente\__github\Scripts\Python\Sonstige_Uebungen\create_excel_links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38FF271F-4F36-4DE1-9AB9-692D5C464043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0996164C-9738-433C-B0A2-AE9E84785BE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{99E6A7D0-1AEC-46E2-8B8D-0D4839952040}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Pfad</t>
   </si>
@@ -67,6 +67,33 @@
   </si>
   <si>
     <t>\\server\ordner1</t>
+  </si>
+  <si>
+    <t>Unterordner2</t>
+  </si>
+  <si>
+    <t>Ordner1.1</t>
+  </si>
+  <si>
+    <t>Ordner1.2</t>
+  </si>
+  <si>
+    <t>Ordner1.3</t>
+  </si>
+  <si>
+    <t>Ordner2.1</t>
+  </si>
+  <si>
+    <t>Ordner3.1</t>
+  </si>
+  <si>
+    <t>Ordner2.2</t>
+  </si>
+  <si>
+    <t>Ordner4.1</t>
+  </si>
+  <si>
+    <t>Ordner5.1</t>
   </si>
 </sst>
 </file>
@@ -425,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963899DA-D05A-49E8-82C0-24AAA512CC63}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -437,97 +464,132 @@
     <col min="2" max="2" width="15.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
     </row>
